--- a/data/2022-03-16 inntektsdata_per_ar_til_reg_figur.xlsx
+++ b/data/2022-03-16 inntektsdata_per_ar_til_reg_figur.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navno-my.sharepoint.com/personal/eirik_lamoy_nav_no/Documents/Documents/R-prosjekter/maxKG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{E9116DA6-CE89-4959-B6AB-E80D64AC15EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03BA455-79D8-4946-ACC7-6AB7A6B1869B}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{E9116DA6-CE89-4959-B6AB-E80D64AC15EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7CF954F-4209-498B-8C79-453F53BD6571}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DD691CE-03F3-4E37-A0DE-884D56FC966E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4DD691CE-03F3-4E37-A0DE-884D56FC966E}"/>
   </bookViews>
   <sheets>
     <sheet name="mottaker" sheetId="1" r:id="rId1"/>
-    <sheet name="husholdning" sheetId="2" r:id="rId2"/>
+    <sheet name="inntekt_mottakere" sheetId="3" r:id="rId2"/>
+    <sheet name="husholdning" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +25,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="9">
   <si>
     <t>gr</t>
   </si>
@@ -55,11 +59,20 @@
   <si>
     <t>[0.7,0.95)</t>
   </si>
+  <si>
+    <t>[0.85,0.95)</t>
+  </si>
+  <si>
+    <t>[0.90,0.95)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,11 +550,15 @@
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - uthevingsfarge 1" xfId="1" xr:uid="{69AD2032-BF7E-4F26-AA01-DB8C422D6303}"/>
@@ -899,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811223F7-7175-46B7-9A5A-2711B7396D76}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,6 +1334,502 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B59C23-BE56-4B7B-9222-ED495B8F067C}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.22618185889788001</v>
+      </c>
+      <c r="D2">
+        <v>0.85</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.25317161389929438</v>
+      </c>
+      <c r="D3">
+        <v>0.85</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.27495898841839328</v>
+      </c>
+      <c r="D4">
+        <v>0.85</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.280119165536863</v>
+      </c>
+      <c r="D5">
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.2882241062491474</v>
+      </c>
+      <c r="D6">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.27701246795345991</v>
+      </c>
+      <c r="D7">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.27638685550139391</v>
+      </c>
+      <c r="D8">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.182315</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2016</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.211671</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.23494100000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.23594100000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.228655</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.23419100000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2015</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.14872290341299491</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2016</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.19353657244446279</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2017</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.21843568620692241</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.2292012626661232</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.23094830701794189</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.22084969934054799</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.22815654902582411</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2015</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.14872290341299491</v>
+      </c>
+      <c r="D23">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>2016</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.19353657244446279</v>
+      </c>
+      <c r="D24">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>2017</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.21843568620692241</v>
+      </c>
+      <c r="D25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.2292012626661232</v>
+      </c>
+      <c r="D26">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>2019</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.23094830701794189</v>
+      </c>
+      <c r="D27">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.22084969934054799</v>
+      </c>
+      <c r="D28">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>2021</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.22815654902582411</v>
+      </c>
+      <c r="D29">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9731214-A33D-43E6-8063-D6B9A28A3F85}">
   <dimension ref="A1:D29"/>
   <sheetViews>
